--- a/biology/Botanique/Chervis/Chervis.xlsx
+++ b/biology/Botanique/Chervis/Chervis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sium sisarum
 Le chervis (Sium sisarum L.) est une espèce de plantes herbacées vivaces de la famille des Apiacées (Ombellifères), autrefois cultivée comme légume pour ses racines comestibles.
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace, très rustique, à tiges rameuses, cannelées, dressées, qui peuvent atteindre 1,5 m de haut.
 Les racines tubéreuses en fuseau, fasciculées, sont renflées, charnues, de couleur blanc grisâtre extérieurement. Elles ont la chair blanche et souvent le cœur fibreux.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Asie occidentale et centrale (Iran, Irak, Turquie, Arménie, Azerbaïdjan, Daghestan, Kazakhstan, Kirghizistan, Tadjikistan, Turkménistan) et d'Europe de l'Est (Moldavie, Russie, Ukraine, Bulgarie, Roumanie, Hongrie).
 Selon certains auteurs, ce légume aurait été introduit en France vers le XVe siècle depuis l'Allemagne et la Russie.
@@ -579,7 +595,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Nécessite un sol frais, profond et bien ameubli.
 Multiplication par semis de préférence à l'automne (septembre-octobre), ou par division d'anciennes souches au printemps (mars-avril).
@@ -612,7 +630,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les racines, dont le goût sucré et légèrement farineux rappelle celui du panais, se consomment cuites, accommodées à la manière des salsifis ou des scorsonères.
 Les jeunes pousses, étiolées à la manière des barbes de capucin, se mangent crues en salade.
@@ -645,9 +665,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 avr. 2013)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 avr. 2013) :
 sous-espèce Sium sisarum subsp. sisaroideum</t>
         </is>
       </c>
@@ -676,9 +698,11 @@
           <t>Calendrier républicain</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Le chervis voit son nom attribué au 16e jour du mois de brumaire du calendrier républicain ou révolutionnaire français[3], généralement chaque 6 novembre du calendrier grégorien.</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le chervis voit son nom attribué au 16e jour du mois de brumaire du calendrier républicain ou révolutionnaire français, généralement chaque 6 novembre du calendrier grégorien.</t>
         </is>
       </c>
     </row>
